--- a/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
+++ b/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="346">
   <si>
     <t>RMS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,6 +1417,10 @@
   </si>
   <si>
     <t>计算电流/1.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较复杂，详看说明2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1903,7 +1907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2171,9 +2175,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2354,6 +2355,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2373,45 +2413,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2739,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2784,26 +2785,26 @@
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="145" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143" t="s">
+      <c r="E7" s="142"/>
+      <c r="F7" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="144" t="s">
+      <c r="G7" s="142"/>
+      <c r="H7" s="143" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="141" t="s">
+      <c r="I7" s="140" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="147"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="75" t="s">
         <v>111</v>
       </c>
@@ -2816,8 +2817,8 @@
       <c r="G8" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="145"/>
-      <c r="I8" s="142"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="141"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74" t="s">
@@ -2829,7 +2830,7 @@
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
       <c r="G9" s="80"/>
-      <c r="H9" s="92"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="79"/>
       <c r="K9" t="s">
         <v>213</v>
@@ -2845,7 +2846,7 @@
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
       <c r="G10" s="80"/>
-      <c r="H10" s="92"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="79"/>
       <c r="K10" t="s">
         <v>214</v>
@@ -2861,52 +2862,52 @@
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
       <c r="G11" s="80"/>
-      <c r="H11" s="92"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="79"/>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="95" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="138">
         <v>4</v>
       </c>
-      <c r="E12" s="139">
+      <c r="E12" s="138">
         <v>5</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="90">
         <v>1</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="98" t="s">
         <v>342</v>
       </c>
-      <c r="K12" s="96" t="s">
+      <c r="K12" s="95" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="91">
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="90">
         <v>1</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="99" t="s">
         <v>343</v>
       </c>
       <c r="K13" t="s">
@@ -2914,19 +2915,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="138"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="91">
+      <c r="C14" s="137"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="90">
         <v>1</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="99" t="s">
         <v>344</v>
       </c>
       <c r="K14" t="s">
@@ -2934,13 +2935,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="136" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="139">
+      <c r="D15" s="138">
         <v>5</v>
       </c>
-      <c r="E15" s="139">
+      <c r="E15" s="138">
         <v>6</v>
       </c>
       <c r="F15" s="77">
@@ -2949,7 +2950,7 @@
       <c r="G15" s="77">
         <v>3</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="92" t="s">
         <v>211</v>
       </c>
       <c r="I15" s="73" t="s">
@@ -2960,19 +2961,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="138"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
       <c r="F16" s="86">
         <v>1</v>
       </c>
       <c r="G16" s="86">
         <v>0</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="99" t="s">
+      <c r="I16" s="98" t="s">
         <v>235</v>
       </c>
       <c r="K16" t="s">
@@ -2991,7 +2992,7 @@
       </c>
       <c r="F17" s="80"/>
       <c r="G17" s="80"/>
-      <c r="H17" s="92"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="79"/>
       <c r="K17" t="s">
         <v>227</v>
@@ -3009,17 +3010,17 @@
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
-      <c r="H18" s="92"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="79"/>
     </row>
     <row r="19" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="139">
+      <c r="D19" s="138">
         <v>8</v>
       </c>
-      <c r="E19" s="139">
+      <c r="E19" s="138">
         <v>0</v>
       </c>
       <c r="F19" s="77">
@@ -3028,27 +3029,27 @@
       <c r="G19" s="77">
         <v>3</v>
       </c>
-      <c r="H19" s="93" t="s">
+      <c r="H19" s="92" t="s">
         <v>208</v>
       </c>
       <c r="I19" s="73" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="3:11" s="115" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="138"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="124">
+    <row r="20" spans="3:11" s="114" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="137"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="123">
         <v>3</v>
       </c>
-      <c r="G20" s="124">
+      <c r="G20" s="123">
         <v>1</v>
       </c>
-      <c r="H20" s="125" t="s">
+      <c r="H20" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="I20" s="114" t="s">
+      <c r="I20" s="113" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3068,33 +3069,33 @@
       <c r="G21" s="77">
         <v>1</v>
       </c>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="92" t="s">
         <v>212</v>
       </c>
       <c r="I21" s="73" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="3:11" s="115" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="112" t="s">
+    <row r="22" spans="3:11" s="114" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="113">
+      <c r="D22" s="112">
         <v>9</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="112">
         <v>9</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="112">
         <v>2</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="112">
         <v>0</v>
       </c>
-      <c r="H22" s="113" t="s">
+      <c r="H22" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="I22" s="136" t="s">
+      <c r="I22" s="135" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3108,7 +3109,7 @@
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
-      <c r="H23" s="92"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3121,17 +3122,17 @@
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
-      <c r="H24" s="92"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="79"/>
     </row>
     <row r="25" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="138">
         <v>12</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="138">
         <v>0</v>
       </c>
       <c r="F25" s="77">
@@ -3140,61 +3141,81 @@
       <c r="G25" s="77">
         <v>3</v>
       </c>
-      <c r="H25" s="93" t="s">
+      <c r="H25" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="I25" s="95" t="s">
+      <c r="I25" s="94" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="137"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="89">
+        <v>1</v>
+      </c>
+      <c r="G26" s="89">
+        <v>2</v>
+      </c>
+      <c r="H26" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="I26" s="94" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D27" s="77">
         <v>12</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E27" s="77">
         <v>3</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F27" s="77">
         <v>1</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G27" s="77">
         <v>0</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H27" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="I26" s="95" t="s">
+      <c r="I27" s="94" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="81" t="s">
+    <row r="28" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D28" s="82">
         <v>13</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E28" s="82">
         <v>2</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F28" s="82">
         <v>1</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G28" s="82">
         <v>0</v>
       </c>
-      <c r="H27" s="94" t="s">
+      <c r="H28" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="I27" s="72" t="s">
+      <c r="I28" s="72" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
@@ -3709,12 +3730,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="161" t="s">
+      <c r="M14" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
       <c r="Q14" s="27" t="s">
         <v>292</v>
       </c>
@@ -3756,12 +3777,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="161" t="s">
+      <c r="M15" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4004,13 +4025,13 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="116" t="s">
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="115" t="s">
         <v>292</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -4051,12 +4072,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="162" t="s">
+      <c r="D24" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="164"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="155"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4069,7 +4090,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="2:18" s="104" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:18" s="103" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="50" t="s">
         <v>122</v>
@@ -4095,52 +4116,52 @@
       <c r="B27" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="116">
+      <c r="C27" s="115">
         <v>0</v>
       </c>
-      <c r="D27" s="116">
+      <c r="D27" s="115">
         <v>1</v>
       </c>
-      <c r="E27" s="116">
+      <c r="E27" s="115">
         <v>2</v>
       </c>
-      <c r="F27" s="116">
+      <c r="F27" s="115">
         <v>3</v>
       </c>
-      <c r="G27" s="116">
+      <c r="G27" s="115">
         <v>4</v>
       </c>
-      <c r="H27" s="116">
+      <c r="H27" s="115">
         <v>5</v>
       </c>
-      <c r="I27" s="116">
+      <c r="I27" s="115">
         <v>6</v>
       </c>
-      <c r="J27" s="116">
+      <c r="J27" s="115">
         <v>7</v>
       </c>
-      <c r="K27" s="116">
+      <c r="K27" s="115">
         <v>8</v>
       </c>
-      <c r="L27" s="116">
+      <c r="L27" s="115">
         <v>9</v>
       </c>
-      <c r="M27" s="116">
+      <c r="M27" s="115">
         <v>10</v>
       </c>
-      <c r="N27" s="116">
+      <c r="N27" s="115">
         <v>11</v>
       </c>
-      <c r="O27" s="116">
+      <c r="O27" s="115">
         <v>12</v>
       </c>
-      <c r="P27" s="116">
+      <c r="P27" s="115">
         <v>13</v>
       </c>
-      <c r="Q27" s="116">
+      <c r="Q27" s="115">
         <v>14</v>
       </c>
-      <c r="R27" s="116">
+      <c r="R27" s="115">
         <v>15</v>
       </c>
     </row>
@@ -4148,7 +4169,7 @@
       <c r="C28" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="115" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="66" t="s">
@@ -4157,40 +4178,40 @@
       <c r="F28" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="116" t="s">
+      <c r="G28" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="116" t="s">
+      <c r="H28" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="116" t="s">
+      <c r="I28" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="116" t="s">
+      <c r="J28" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="116" t="s">
+      <c r="K28" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="116" t="s">
+      <c r="L28" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="116" t="s">
+      <c r="M28" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="116" t="s">
+      <c r="N28" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="116" t="s">
+      <c r="O28" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="116" t="s">
+      <c r="P28" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="116" t="s">
+      <c r="Q28" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="R28" s="116" t="s">
+      <c r="R28" s="115" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4198,154 +4219,154 @@
       <c r="B29" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116" t="s">
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="116" t="s">
+      <c r="I29" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="116" t="s">
+      <c r="J29" s="115" t="s">
         <v>283</v>
       </c>
-      <c r="K29" s="116" t="s">
+      <c r="K29" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="116" t="s">
+      <c r="L29" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="116" t="s">
+      <c r="M29" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="116" t="s">
+      <c r="N29" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="116" t="s">
+      <c r="O29" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="P29" s="116" t="s">
+      <c r="P29" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="Q29" s="116" t="s">
+      <c r="Q29" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="116" t="s">
+      <c r="R29" s="115" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
     </row>
     <row r="31" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="116">
+      <c r="C31" s="115">
         <v>16</v>
       </c>
-      <c r="D31" s="116">
+      <c r="D31" s="115">
         <v>17</v>
       </c>
-      <c r="E31" s="116">
+      <c r="E31" s="115">
         <v>18</v>
       </c>
-      <c r="F31" s="116">
+      <c r="F31" s="115">
         <v>19</v>
       </c>
-      <c r="G31" s="116">
+      <c r="G31" s="115">
         <v>20</v>
       </c>
-      <c r="H31" s="116">
+      <c r="H31" s="115">
         <v>21</v>
       </c>
-      <c r="I31" s="116">
+      <c r="I31" s="115">
         <v>22</v>
       </c>
-      <c r="J31" s="116">
+      <c r="J31" s="115">
         <v>23</v>
       </c>
-      <c r="K31" s="116">
+      <c r="K31" s="115">
         <v>24</v>
       </c>
-      <c r="L31" s="116">
+      <c r="L31" s="115">
         <v>25</v>
       </c>
-      <c r="M31" s="116">
+      <c r="M31" s="115">
         <v>26</v>
       </c>
-      <c r="N31" s="116">
+      <c r="N31" s="115">
         <v>27</v>
       </c>
-      <c r="O31" s="116">
+      <c r="O31" s="115">
         <v>28</v>
       </c>
-      <c r="P31" s="116">
+      <c r="P31" s="115">
         <v>29</v>
       </c>
-      <c r="Q31" s="116">
+      <c r="Q31" s="115">
         <v>30</v>
       </c>
-      <c r="R31" s="116">
+      <c r="R31" s="115">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="157" t="s">
+      <c r="D32" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="116" t="s">
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="115" t="s">
         <v>292</v>
       </c>
       <c r="I32" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="J32" s="116" t="s">
+      <c r="J32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="116" t="s">
+      <c r="K32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="116" t="s">
+      <c r="L32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="116" t="s">
+      <c r="M32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="116" t="s">
+      <c r="N32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="116" t="s">
+      <c r="O32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="116" t="s">
+      <c r="P32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="116" t="s">
+      <c r="Q32" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="116" t="s">
+      <c r="R32" s="115" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4353,46 +4374,46 @@
       <c r="B33" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="116" t="s">
+      <c r="C33" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="161"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-    </row>
-    <row r="34" spans="2:18" s="105" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+    </row>
+    <row r="34" spans="2:18" s="104" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
     </row>
     <row r="35" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="50" t="s">
@@ -4657,12 +4678,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="162" t="s">
+      <c r="L41" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="163"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="164"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="155"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4704,12 +4725,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="162" t="s">
+      <c r="L42" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="163"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="164"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
+      <c r="O42" s="155"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -5000,12 +5021,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="161" t="s">
+      <c r="M50" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="161"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="161"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5047,12 +5068,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="161" t="s">
+      <c r="M51" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="161"/>
-      <c r="O51" s="161"/>
-      <c r="P51" s="161"/>
+      <c r="N51" s="152"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="152"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5298,12 +5319,12 @@
       <c r="C59" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="161" t="s">
+      <c r="D59" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
       <c r="H59" s="32" t="s">
         <v>147</v>
       </c>
@@ -5345,12 +5366,12 @@
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="162" t="s">
+      <c r="D60" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="163"/>
-      <c r="F60" s="163"/>
-      <c r="G60" s="164"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="155"/>
       <c r="H60" s="32" t="s">
         <v>158</v>
       </c>
@@ -5607,12 +5628,12 @@
       <c r="C68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="157" t="s">
+      <c r="D68" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="157"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
       <c r="H68" s="23" t="s">
         <v>196</v>
       </c>
@@ -5654,12 +5675,12 @@
       <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="158" t="s">
+      <c r="D69" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="159"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="160"/>
+      <c r="E69" s="160"/>
+      <c r="F69" s="160"/>
+      <c r="G69" s="161"/>
       <c r="H69" s="23" t="s">
         <v>88</v>
       </c>
@@ -5932,12 +5953,12 @@
       <c r="C78" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="157" t="s">
+      <c r="D78" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="157"/>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="158"/>
       <c r="H78" s="87" t="s">
         <v>196</v>
       </c>
@@ -5979,12 +6000,12 @@
       <c r="C79" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="158" t="s">
+      <c r="D79" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="159"/>
-      <c r="F79" s="159"/>
-      <c r="G79" s="160"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="161"/>
       <c r="H79" s="87" t="s">
         <v>88</v>
       </c>
@@ -5999,327 +6020,327 @@
       <c r="Q79" s="87"/>
       <c r="R79" s="87"/>
     </row>
-    <row r="80" spans="2:18" s="101" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="102"/>
-      <c r="D80" s="102"/>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="102"/>
-      <c r="I80" s="102"/>
-      <c r="J80" s="102"/>
-      <c r="K80" s="102"/>
-      <c r="L80" s="102"/>
-      <c r="M80" s="102"/>
-      <c r="N80" s="102"/>
-      <c r="O80" s="102"/>
-      <c r="P80" s="102"/>
-      <c r="Q80" s="102"/>
-      <c r="R80" s="102"/>
-    </row>
-    <row r="81" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="118" t="s">
+    <row r="80" spans="2:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
+      <c r="P80" s="101"/>
+      <c r="Q80" s="101"/>
+      <c r="R80" s="101"/>
+    </row>
+    <row r="81" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="119"/>
-      <c r="D81" s="119"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="119"/>
-      <c r="G81" s="119"/>
-      <c r="H81" s="119"/>
-      <c r="I81" s="119"/>
-      <c r="J81" s="119"/>
-      <c r="K81" s="119"/>
-      <c r="L81" s="119"/>
-      <c r="M81" s="119"/>
-      <c r="N81" s="119"/>
-      <c r="O81" s="119"/>
-      <c r="P81" s="119"/>
-      <c r="Q81" s="119"/>
-      <c r="R81" s="119"/>
-    </row>
-    <row r="82" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="118" t="s">
+      <c r="C81" s="118"/>
+      <c r="D81" s="118"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="118"/>
+      <c r="J81" s="118"/>
+      <c r="K81" s="118"/>
+      <c r="L81" s="118"/>
+      <c r="M81" s="118"/>
+      <c r="N81" s="118"/>
+      <c r="O81" s="118"/>
+      <c r="P81" s="118"/>
+      <c r="Q81" s="118"/>
+      <c r="R81" s="118"/>
+    </row>
+    <row r="82" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="120">
+      <c r="C82" s="119">
         <v>0</v>
       </c>
-      <c r="D82" s="120">
+      <c r="D82" s="119">
         <v>1</v>
       </c>
-      <c r="E82" s="120">
+      <c r="E82" s="119">
         <v>2</v>
       </c>
-      <c r="F82" s="120">
+      <c r="F82" s="119">
         <v>3</v>
       </c>
-      <c r="G82" s="120">
+      <c r="G82" s="119">
         <v>4</v>
       </c>
-      <c r="H82" s="120">
+      <c r="H82" s="119">
         <v>5</v>
       </c>
-      <c r="I82" s="120">
+      <c r="I82" s="119">
         <v>6</v>
       </c>
-      <c r="J82" s="120">
+      <c r="J82" s="119">
         <v>7</v>
       </c>
-      <c r="K82" s="120">
+      <c r="K82" s="119">
         <v>8</v>
       </c>
-      <c r="L82" s="120">
+      <c r="L82" s="119">
         <v>9</v>
       </c>
-      <c r="M82" s="120">
+      <c r="M82" s="119">
         <v>10</v>
       </c>
-      <c r="N82" s="120">
+      <c r="N82" s="119">
         <v>11</v>
       </c>
-      <c r="O82" s="120">
+      <c r="O82" s="119">
         <v>12</v>
       </c>
-      <c r="P82" s="120">
+      <c r="P82" s="119">
         <v>13</v>
       </c>
-      <c r="Q82" s="120">
+      <c r="Q82" s="119">
         <v>14</v>
       </c>
-      <c r="R82" s="120">
+      <c r="R82" s="119">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="121" t="s">
+    <row r="83" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="120" t="s">
+      <c r="D83" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="E83" s="121" t="s">
+      <c r="E83" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="F83" s="121" t="s">
+      <c r="F83" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="G83" s="120" t="s">
+      <c r="G83" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="H83" s="120" t="s">
+      <c r="H83" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="I83" s="120" t="s">
+      <c r="I83" s="119" t="s">
         <v>291</v>
       </c>
-      <c r="J83" s="120" t="s">
+      <c r="J83" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="K83" s="120" t="s">
+      <c r="K83" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="L83" s="120" t="s">
+      <c r="L83" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="M83" s="120" t="s">
+      <c r="M83" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="N83" s="120" t="s">
+      <c r="N83" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="O83" s="120" t="s">
+      <c r="O83" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="P83" s="120" t="s">
+      <c r="P83" s="119" t="s">
         <v>249</v>
       </c>
-      <c r="Q83" s="120" t="s">
+      <c r="Q83" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="R83" s="120" t="s">
+      <c r="R83" s="119" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="118" t="s">
+    <row r="84" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="117" t="s">
         <v>252</v>
       </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="120"/>
-      <c r="F84" s="120"/>
-      <c r="G84" s="120"/>
-      <c r="H84" s="120" t="s">
+      <c r="C84" s="119"/>
+      <c r="D84" s="119"/>
+      <c r="E84" s="119"/>
+      <c r="F84" s="119"/>
+      <c r="G84" s="119"/>
+      <c r="H84" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="I84" s="120" t="s">
+      <c r="I84" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="J84" s="120" t="s">
+      <c r="J84" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="K84" s="120" t="s">
+      <c r="K84" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="L84" s="120" t="s">
+      <c r="L84" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="120" t="s">
+      <c r="M84" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="N84" s="120" t="s">
+      <c r="N84" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="O84" s="120" t="s">
+      <c r="O84" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="P84" s="120" t="s">
+      <c r="P84" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="Q84" s="120" t="s">
+      <c r="Q84" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="R84" s="120" t="s">
+      <c r="R84" s="119" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="122"/>
-      <c r="H85" s="122"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="122"/>
-      <c r="L85" s="122"/>
-      <c r="M85" s="122"/>
-      <c r="N85" s="122"/>
-      <c r="O85" s="122"/>
-      <c r="P85" s="122"/>
-      <c r="Q85" s="122"/>
-      <c r="R85" s="122"/>
-    </row>
-    <row r="86" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="120">
+    <row r="85" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="121"/>
+      <c r="L85" s="121"/>
+      <c r="M85" s="121"/>
+      <c r="N85" s="121"/>
+      <c r="O85" s="121"/>
+      <c r="P85" s="121"/>
+      <c r="Q85" s="121"/>
+      <c r="R85" s="121"/>
+    </row>
+    <row r="86" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="119">
         <v>16</v>
       </c>
-      <c r="D86" s="120">
+      <c r="D86" s="119">
         <v>17</v>
       </c>
-      <c r="E86" s="120">
+      <c r="E86" s="119">
         <v>18</v>
       </c>
-      <c r="F86" s="120">
+      <c r="F86" s="119">
         <v>19</v>
       </c>
-      <c r="G86" s="120">
+      <c r="G86" s="119">
         <v>20</v>
       </c>
-      <c r="H86" s="120">
+      <c r="H86" s="119">
         <v>21</v>
       </c>
-      <c r="I86" s="120">
+      <c r="I86" s="119">
         <v>22</v>
       </c>
-      <c r="J86" s="120">
+      <c r="J86" s="119">
         <v>23</v>
       </c>
-      <c r="K86" s="120">
+      <c r="K86" s="119">
         <v>24</v>
       </c>
-      <c r="L86" s="120">
+      <c r="L86" s="119">
         <v>25</v>
       </c>
-      <c r="M86" s="120">
+      <c r="M86" s="119">
         <v>26</v>
       </c>
-      <c r="N86" s="120">
+      <c r="N86" s="119">
         <v>27</v>
       </c>
-      <c r="O86" s="120">
+      <c r="O86" s="119">
         <v>28</v>
       </c>
-      <c r="P86" s="120">
+      <c r="P86" s="119">
         <v>29</v>
       </c>
-      <c r="Q86" s="120">
+      <c r="Q86" s="119">
         <v>30</v>
       </c>
-      <c r="R86" s="120">
+      <c r="R86" s="119">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="120" t="s">
+    <row r="87" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="150" t="s">
+      <c r="D87" s="162" t="s">
         <v>259</v>
       </c>
-      <c r="E87" s="150"/>
-      <c r="F87" s="150"/>
-      <c r="G87" s="150"/>
-      <c r="H87" s="120" t="s">
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
+      <c r="G87" s="162"/>
+      <c r="H87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="I87" s="120" t="s">
+      <c r="I87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="J87" s="120" t="s">
+      <c r="J87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="K87" s="120" t="s">
+      <c r="K87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="L87" s="120" t="s">
+      <c r="L87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="M87" s="120" t="s">
+      <c r="M87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="N87" s="120" t="s">
+      <c r="N87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="O87" s="120" t="s">
+      <c r="O87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="P87" s="120" t="s">
+      <c r="P87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="Q87" s="120" t="s">
+      <c r="Q87" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="R87" s="120" t="s">
+      <c r="R87" s="119" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="123" t="s">
+    <row r="88" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="120" t="s">
+      <c r="C88" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="151" t="s">
+      <c r="D88" s="163" t="s">
         <v>257</v>
       </c>
-      <c r="E88" s="152"/>
-      <c r="F88" s="152"/>
-      <c r="G88" s="153"/>
-      <c r="H88" s="120"/>
-      <c r="I88" s="120"/>
-      <c r="J88" s="120"/>
-      <c r="K88" s="120"/>
-      <c r="L88" s="120"/>
-      <c r="M88" s="120"/>
-      <c r="N88" s="120"/>
-      <c r="O88" s="120"/>
-      <c r="P88" s="120"/>
-      <c r="Q88" s="120"/>
-      <c r="R88" s="120"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="119"/>
+      <c r="I88" s="119"/>
+      <c r="J88" s="119"/>
+      <c r="K88" s="119"/>
+      <c r="L88" s="119"/>
+      <c r="M88" s="119"/>
+      <c r="N88" s="119"/>
+      <c r="O88" s="119"/>
+      <c r="P88" s="119"/>
+      <c r="Q88" s="119"/>
+      <c r="R88" s="119"/>
     </row>
     <row r="89" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
@@ -6994,23 +7015,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="168" t="s">
+      <c r="H111" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="168"/>
-      <c r="J111" s="168"/>
-      <c r="K111" s="168"/>
-      <c r="L111" s="168" t="s">
+      <c r="I111" s="156"/>
+      <c r="J111" s="156"/>
+      <c r="K111" s="156"/>
+      <c r="L111" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="168"/>
-      <c r="N111" s="168"/>
-      <c r="O111" s="168"/>
-      <c r="P111" s="168" t="s">
+      <c r="M111" s="156"/>
+      <c r="N111" s="156"/>
+      <c r="O111" s="156"/>
+      <c r="P111" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="168"/>
-      <c r="R111" s="168"/>
+      <c r="Q111" s="156"/>
+      <c r="R111" s="156"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7073,12 +7094,12 @@
       <c r="C114" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="169" t="s">
+      <c r="D114" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="169"/>
-      <c r="F114" s="169"/>
-      <c r="G114" s="169"/>
+      <c r="E114" s="157"/>
+      <c r="F114" s="157"/>
+      <c r="G114" s="157"/>
       <c r="H114" s="39" t="s">
         <v>70</v>
       </c>
@@ -7091,10 +7112,10 @@
       <c r="K114" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L114" s="103" t="s">
+      <c r="L114" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="M114" s="103" t="s">
+      <c r="M114" s="102" t="s">
         <v>196</v>
       </c>
       <c r="N114" s="39" t="s">
@@ -7231,23 +7252,23 @@
       <c r="G120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="168" t="s">
+      <c r="H120" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="168"/>
-      <c r="J120" s="168"/>
-      <c r="K120" s="168"/>
-      <c r="L120" s="168" t="s">
+      <c r="I120" s="156"/>
+      <c r="J120" s="156"/>
+      <c r="K120" s="156"/>
+      <c r="L120" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="168"/>
-      <c r="N120" s="168"/>
-      <c r="O120" s="168"/>
-      <c r="P120" s="168" t="s">
+      <c r="M120" s="156"/>
+      <c r="N120" s="156"/>
+      <c r="O120" s="156"/>
+      <c r="P120" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="168"/>
-      <c r="R120" s="168"/>
+      <c r="Q120" s="156"/>
+      <c r="R120" s="156"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7309,12 +7330,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="169" t="s">
+      <c r="D123" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="169"/>
-      <c r="F123" s="169"/>
-      <c r="G123" s="169"/>
+      <c r="E123" s="157"/>
+      <c r="F123" s="157"/>
+      <c r="G123" s="157"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7399,234 +7420,234 @@
       <c r="B128" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="C128" s="107">
+      <c r="C128" s="106">
         <v>0</v>
       </c>
-      <c r="D128" s="107">
+      <c r="D128" s="106">
         <v>1</v>
       </c>
-      <c r="E128" s="107">
+      <c r="E128" s="106">
         <v>2</v>
       </c>
-      <c r="F128" s="107">
+      <c r="F128" s="106">
         <v>3</v>
       </c>
-      <c r="G128" s="107">
+      <c r="G128" s="106">
         <v>4</v>
       </c>
-      <c r="H128" s="107">
+      <c r="H128" s="106">
         <v>5</v>
       </c>
-      <c r="I128" s="107">
+      <c r="I128" s="106">
         <v>6</v>
       </c>
-      <c r="J128" s="107">
+      <c r="J128" s="106">
         <v>7</v>
       </c>
-      <c r="K128" s="107">
+      <c r="K128" s="106">
         <v>8</v>
       </c>
-      <c r="L128" s="107">
+      <c r="L128" s="106">
         <v>9</v>
       </c>
-      <c r="M128" s="107">
+      <c r="M128" s="106">
         <v>10</v>
       </c>
-      <c r="N128" s="107">
+      <c r="N128" s="106">
         <v>11</v>
       </c>
-      <c r="O128" s="107">
+      <c r="O128" s="106">
         <v>12</v>
       </c>
-      <c r="P128" s="107">
+      <c r="P128" s="106">
         <v>13</v>
       </c>
-      <c r="Q128" s="107">
+      <c r="Q128" s="106">
         <v>14</v>
       </c>
-      <c r="R128" s="107">
+      <c r="R128" s="106">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="C129" s="109" t="s">
+      <c r="C129" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="D129" s="109" t="s">
+      <c r="D129" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="E129" s="109" t="s">
+      <c r="E129" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="F129" s="109" t="s">
+      <c r="F129" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="G129" s="109" t="s">
+      <c r="G129" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="H129" s="154" t="s">
+      <c r="H129" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="I129" s="154"/>
-      <c r="J129" s="154"/>
-      <c r="K129" s="154"/>
-      <c r="L129" s="154" t="s">
+      <c r="I129" s="166"/>
+      <c r="J129" s="166"/>
+      <c r="K129" s="166"/>
+      <c r="L129" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="M129" s="154"/>
-      <c r="N129" s="154"/>
-      <c r="O129" s="154"/>
-      <c r="P129" s="107" t="s">
+      <c r="M129" s="166"/>
+      <c r="N129" s="166"/>
+      <c r="O129" s="166"/>
+      <c r="P129" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="Q129" s="107" t="s">
+      <c r="Q129" s="106" t="s">
         <v>271</v>
       </c>
-      <c r="R129" s="107" t="s">
+      <c r="R129" s="106" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="110"/>
-      <c r="D130" s="110"/>
-      <c r="E130" s="110"/>
-      <c r="F130" s="110"/>
-      <c r="G130" s="110"/>
-      <c r="H130" s="110"/>
-      <c r="I130" s="110"/>
-      <c r="J130" s="110"/>
-      <c r="K130" s="110"/>
-      <c r="L130" s="110"/>
-      <c r="M130" s="110"/>
-      <c r="N130" s="110"/>
-      <c r="O130" s="110"/>
-      <c r="P130" s="110"/>
-      <c r="Q130" s="110"/>
-      <c r="R130" s="110"/>
+      <c r="C130" s="109"/>
+      <c r="D130" s="109"/>
+      <c r="E130" s="109"/>
+      <c r="F130" s="109"/>
+      <c r="G130" s="109"/>
+      <c r="H130" s="109"/>
+      <c r="I130" s="109"/>
+      <c r="J130" s="109"/>
+      <c r="K130" s="109"/>
+      <c r="L130" s="109"/>
+      <c r="M130" s="109"/>
+      <c r="N130" s="109"/>
+      <c r="O130" s="109"/>
+      <c r="P130" s="109"/>
+      <c r="Q130" s="109"/>
+      <c r="R130" s="109"/>
     </row>
     <row r="131" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="107">
+      <c r="C131" s="106">
         <v>16</v>
       </c>
-      <c r="D131" s="107">
+      <c r="D131" s="106">
         <v>17</v>
       </c>
-      <c r="E131" s="107">
+      <c r="E131" s="106">
         <v>18</v>
       </c>
-      <c r="F131" s="107">
+      <c r="F131" s="106">
         <v>19</v>
       </c>
-      <c r="G131" s="107">
+      <c r="G131" s="106">
         <v>20</v>
       </c>
-      <c r="H131" s="107">
+      <c r="H131" s="106">
         <v>21</v>
       </c>
-      <c r="I131" s="107">
+      <c r="I131" s="106">
         <v>22</v>
       </c>
-      <c r="J131" s="107">
+      <c r="J131" s="106">
         <v>23</v>
       </c>
-      <c r="K131" s="107">
+      <c r="K131" s="106">
         <v>24</v>
       </c>
-      <c r="L131" s="107">
+      <c r="L131" s="106">
         <v>25</v>
       </c>
-      <c r="M131" s="107">
+      <c r="M131" s="106">
         <v>26</v>
       </c>
-      <c r="N131" s="107">
+      <c r="N131" s="106">
         <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="111"/>
-      <c r="C132" s="155" t="s">
+      <c r="B132" s="110"/>
+      <c r="C132" s="167" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="156"/>
-      <c r="E132" s="107" t="s">
+      <c r="D132" s="168"/>
+      <c r="E132" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="F132" s="107">
+      <c r="F132" s="106">
         <v>0</v>
       </c>
-      <c r="G132" s="107">
+      <c r="G132" s="106">
         <v>0</v>
       </c>
-      <c r="H132" s="107" t="s">
+      <c r="H132" s="106" t="s">
         <v>275</v>
       </c>
-      <c r="I132" s="107" t="s">
+      <c r="I132" s="106" t="s">
         <v>276</v>
       </c>
-      <c r="J132" s="107" t="s">
+      <c r="J132" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="K132" s="107" t="s">
+      <c r="K132" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="L132" s="103" t="s">
+      <c r="L132" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="M132" s="103" t="s">
+      <c r="M132" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="N132" s="107" t="s">
+      <c r="N132" s="106" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="101" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="102"/>
-      <c r="D133" s="102"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="102"/>
-      <c r="G133" s="102"/>
-      <c r="H133" s="102"/>
-      <c r="I133" s="102"/>
-      <c r="J133" s="102"/>
-      <c r="K133" s="102"/>
-      <c r="L133" s="102"/>
-      <c r="M133" s="102"/>
-      <c r="N133" s="102"/>
-    </row>
-    <row r="134" spans="1:18" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="111" t="s">
+    <row r="133" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="101"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="101"/>
+      <c r="I133" s="101"/>
+      <c r="J133" s="101"/>
+      <c r="K133" s="101"/>
+      <c r="L133" s="101"/>
+      <c r="M133" s="101"/>
+      <c r="N133" s="101"/>
+    </row>
+    <row r="134" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="C134" s="107">
+      <c r="C134" s="106">
         <v>0</v>
       </c>
-      <c r="D134" s="107">
+      <c r="D134" s="106">
         <v>1</v>
       </c>
-      <c r="E134" s="107">
+      <c r="E134" s="106">
         <v>2</v>
       </c>
-      <c r="F134" s="107">
+      <c r="F134" s="106">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="108" t="s">
+    <row r="135" spans="1:18" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="C135" s="109" t="s">
+      <c r="C135" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="D135" s="109" t="s">
+      <c r="D135" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="E135" s="109">
+      <c r="E135" s="108">
         <v>11</v>
       </c>
-      <c r="F135" s="109" t="s">
+      <c r="F135" s="108" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7893,18 +7914,18 @@
       <c r="F144" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="165" t="s">
+      <c r="G144" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="166"/>
-      <c r="I144" s="166"/>
-      <c r="J144" s="167"/>
-      <c r="K144" s="165" t="s">
+      <c r="H144" s="150"/>
+      <c r="I144" s="150"/>
+      <c r="J144" s="151"/>
+      <c r="K144" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="L144" s="166"/>
-      <c r="M144" s="166"/>
-      <c r="N144" s="167"/>
+      <c r="L144" s="150"/>
+      <c r="M144" s="150"/>
+      <c r="N144" s="151"/>
       <c r="O144" s="62" t="s">
         <v>199</v>
       </c>
@@ -7926,6 +7947,21 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7942,21 +7978,6 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7974,55 +7995,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.5" style="127" customWidth="1"/>
-    <col min="3" max="7" width="9" style="126"/>
+    <col min="2" max="2" width="21.5" style="126" customWidth="1"/>
+    <col min="3" max="7" width="9" style="125"/>
     <col min="8" max="8" width="15.875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="172" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="134" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="133" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="169" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
     </row>
     <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="128" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="128" t="s">
         <v>301</v>
       </c>
       <c r="H4" s="73">
@@ -8030,22 +8051,22 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="129" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="128" t="s">
         <v>327</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="128" t="s">
         <v>328</v>
       </c>
       <c r="H5" s="73">
@@ -8053,22 +8074,22 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="129" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="128" t="s">
         <v>329</v>
       </c>
       <c r="H6" s="73">
@@ -8076,22 +8097,22 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="129" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="128" t="s">
         <v>330</v>
       </c>
       <c r="H7" s="73">
@@ -8099,22 +8120,22 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="128" t="s">
         <v>331</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="128" t="s">
         <v>331</v>
       </c>
       <c r="H8" s="73">
@@ -8122,22 +8143,22 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="129" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="128" t="s">
         <v>327</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="128" t="s">
         <v>331</v>
       </c>
       <c r="H9" s="73">
@@ -8145,22 +8166,22 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="129" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="128" t="s">
         <v>332</v>
       </c>
       <c r="H10" s="73">
@@ -8168,22 +8189,22 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="129" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="128" t="s">
         <v>333</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="128" t="s">
         <v>334</v>
       </c>
       <c r="H11" s="73">
@@ -8191,22 +8212,22 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="129" t="s">
+      <c r="E12" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F12" s="129" t="s">
+      <c r="F12" s="128" t="s">
         <v>332</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="128" t="s">
         <v>333</v>
       </c>
       <c r="H12" s="73">
@@ -8214,22 +8235,22 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="129" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="128" t="s">
         <v>335</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="128" t="s">
         <v>335</v>
       </c>
       <c r="H13" s="73">
@@ -8237,33 +8258,33 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="173" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="176"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="175"/>
     </row>
     <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="127" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="129" t="s">
+      <c r="E15" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="128" t="s">
         <v>337</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="128" t="s">
         <v>301</v>
       </c>
       <c r="H15" s="73">
@@ -8271,75 +8292,75 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="129" t="s">
         <v>312</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="129" t="s">
+      <c r="E16" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="128" t="s">
         <v>337</v>
       </c>
-      <c r="G16" s="135"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="73">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="129" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="128" t="s">
         <v>337</v>
       </c>
-      <c r="G17" s="135"/>
+      <c r="G17" s="134"/>
       <c r="H17" s="73">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="173" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="176"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="175"/>
     </row>
     <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="129" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="129" t="s">
+      <c r="E19" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="128" t="s">
         <v>300</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="128" t="s">
         <v>301</v>
       </c>
       <c r="H19" s="73">
@@ -8347,41 +8368,41 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
       <c r="H20" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="129" t="s">
         <v>319</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="129" t="s">
+      <c r="E21" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="F21" s="129" t="s">
+      <c r="F21" s="128" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="128" t="s">
         <v>301</v>
       </c>
       <c r="H21" s="73">
@@ -8389,41 +8410,41 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="129" t="s">
         <v>320</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="129" t="s">
+      <c r="E22" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
       <c r="H22" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="F23" s="129" t="s">
+      <c r="F23" s="128" t="s">
         <v>300</v>
       </c>
-      <c r="G23" s="129" t="s">
+      <c r="G23" s="128" t="s">
         <v>301</v>
       </c>
       <c r="H23" s="73">
@@ -8431,52 +8452,52 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="129" t="s">
         <v>322</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="D24" s="129" t="s">
+      <c r="D24" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="E24" s="129" t="s">
+      <c r="E24" s="128" t="s">
         <v>299</v>
       </c>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="169" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="172"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="E26" s="129" t="s">
+      <c r="E26" s="128" t="s">
         <v>300</v>
       </c>
-      <c r="F26" s="129" t="s">
+      <c r="F26" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="G26" s="129" t="s">
+      <c r="G26" s="128" t="s">
         <v>301</v>
       </c>
       <c r="H26" s="73">
@@ -8484,22 +8505,22 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="130" t="s">
         <v>324</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="131" t="s">
         <v>298</v>
       </c>
-      <c r="E27" s="132" t="s">
+      <c r="E27" s="131" t="s">
         <v>336</v>
       </c>
-      <c r="F27" s="132" t="s">
+      <c r="F27" s="131" t="s">
         <v>341</v>
       </c>
-      <c r="G27" s="135"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="72">
         <v>16</v>
       </c>

--- a/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
+++ b/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="344">
   <si>
     <t>RMS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,39 +904,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                      黄光（计算电流=0.7），真实电流=0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                      当计算电流=0.4，真实电流=0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                      红光（计算电流=0.6），真实电流=0.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算电流*1（注意：若计算电流为0.4，则真实电流显示为0.45）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算电流/1.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立式跑道灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1412,16 +1384,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算电流/1.72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算电流/1.72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>较复杂，详看说明2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流/1.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   当计算电流=0.4，真实电流=0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      黄光（计算电流=0.7），真实电流=0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      红光（计算电流=0.6），真实电流=0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      当计算电流=0.4，真实电流=0.45</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1867,28 +1855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1907,7 +1873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2199,13 +2165,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2313,7 +2273,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2349,10 +2315,49 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2364,55 +2369,10 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2435,6 +2395,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2445,9 +2423,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2740,10 +2715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K28"/>
+  <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2832,9 +2807,6 @@
       <c r="G9" s="80"/>
       <c r="H9" s="91"/>
       <c r="I9" s="79"/>
-      <c r="K9" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74" t="s">
@@ -2848,9 +2820,6 @@
       <c r="G10" s="80"/>
       <c r="H10" s="91"/>
       <c r="I10" s="79"/>
-      <c r="K10" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74" t="s">
@@ -2864,372 +2833,368 @@
       <c r="G11" s="80"/>
       <c r="H11" s="91"/>
       <c r="I11" s="79"/>
-      <c r="K11" s="95" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="138">
+      <c r="D12" s="135">
         <v>4</v>
       </c>
-      <c r="E12" s="138">
+      <c r="E12" s="135">
         <v>5</v>
       </c>
       <c r="F12" s="90">
         <v>1</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="H12" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="I12" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="K12" s="95" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
+      <c r="I12" s="97" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="136" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="138">
+        <v>5</v>
+      </c>
+      <c r="E13" s="138">
+        <v>6</v>
+      </c>
       <c r="F13" s="90">
         <v>1</v>
       </c>
-      <c r="G13" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I13" s="99" t="s">
-        <v>343</v>
-      </c>
-      <c r="K13" t="s">
-        <v>223</v>
+      <c r="G13" s="90">
+        <v>3</v>
+      </c>
+      <c r="H13" s="175" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="176" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="137"/>
       <c r="D14" s="139"/>
       <c r="E14" s="139"/>
-      <c r="F14" s="90">
+      <c r="F14" s="86">
         <v>1</v>
       </c>
-      <c r="G14" s="97" t="s">
-        <v>233</v>
+      <c r="G14" s="86">
+        <v>0</v>
       </c>
       <c r="H14" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="99" t="s">
-        <v>344</v>
-      </c>
-      <c r="K14" t="s">
-        <v>225</v>
+        <v>211</v>
+      </c>
+      <c r="I14" s="97" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="136" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="138">
-        <v>5</v>
-      </c>
-      <c r="E15" s="138">
+      <c r="C15" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="77">
         <v>6</v>
       </c>
-      <c r="F15" s="77">
+      <c r="E15" s="77">
+        <v>7</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="79"/>
+      <c r="K15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="77">
+        <v>7</v>
+      </c>
+      <c r="E16" s="77">
+        <v>8</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="79"/>
+    </row>
+    <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="138">
+        <v>8</v>
+      </c>
+      <c r="E17" s="138">
+        <v>0</v>
+      </c>
+      <c r="F17" s="77">
         <v>1</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G17" s="77">
         <v>3</v>
       </c>
-      <c r="H15" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="K15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="137"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="86">
+      <c r="H17" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" s="112" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="137"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="121">
+        <v>3</v>
+      </c>
+      <c r="G18" s="121">
         <v>1</v>
       </c>
-      <c r="G16" s="86">
-        <v>0</v>
-      </c>
-      <c r="H16" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="I16" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="77">
-        <v>6</v>
-      </c>
-      <c r="E17" s="77">
-        <v>7</v>
-      </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="79"/>
-      <c r="K17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="77">
-        <v>7</v>
-      </c>
-      <c r="E18" s="77">
+      <c r="H18" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="I18" s="111" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="77">
         <v>8</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="136" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="138">
-        <v>8</v>
-      </c>
-      <c r="E19" s="138">
-        <v>0</v>
+      <c r="E19" s="77">
+        <v>4</v>
       </c>
       <c r="F19" s="77">
         <v>1</v>
       </c>
       <c r="G19" s="77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I19" s="73" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="3:11" s="114" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="137"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="123">
+    <row r="20" spans="3:9" s="112" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="110">
+        <v>9</v>
+      </c>
+      <c r="E20" s="110">
+        <v>9</v>
+      </c>
+      <c r="F20" s="110">
+        <v>2</v>
+      </c>
+      <c r="G20" s="110">
+        <v>0</v>
+      </c>
+      <c r="H20" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" s="133" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="77">
+        <v>10</v>
+      </c>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="79"/>
+    </row>
+    <row r="22" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="77">
+        <v>11</v>
+      </c>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="79"/>
+    </row>
+    <row r="23" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="138">
+        <v>12</v>
+      </c>
+      <c r="E23" s="138">
+        <v>0</v>
+      </c>
+      <c r="F23" s="77">
+        <v>1</v>
+      </c>
+      <c r="G23" s="77">
         <v>3</v>
       </c>
-      <c r="G20" s="123">
+      <c r="H23" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="137"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="89">
         <v>1</v>
       </c>
-      <c r="H20" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="I20" s="113" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="77">
-        <v>8</v>
-      </c>
-      <c r="E21" s="77">
-        <v>4</v>
-      </c>
-      <c r="F21" s="77">
-        <v>1</v>
-      </c>
-      <c r="G21" s="77">
-        <v>1</v>
-      </c>
-      <c r="H21" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" s="114" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="112">
-        <v>9</v>
-      </c>
-      <c r="E22" s="112">
-        <v>9</v>
-      </c>
-      <c r="F22" s="112">
+      <c r="G24" s="89">
         <v>2</v>
       </c>
-      <c r="G22" s="112">
-        <v>0</v>
-      </c>
-      <c r="H22" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="I22" s="135" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="77">
-        <v>10</v>
-      </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="79"/>
-    </row>
-    <row r="24" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="77">
-        <v>11</v>
-      </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="79"/>
-    </row>
-    <row r="25" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="136" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="138">
+      <c r="H24" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="94" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="77">
         <v>12</v>
       </c>
-      <c r="E25" s="138">
-        <v>0</v>
+      <c r="E25" s="77">
+        <v>3</v>
       </c>
       <c r="F25" s="77">
         <v>1</v>
       </c>
       <c r="G25" s="77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I25" s="94" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="137"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="89">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="82">
+        <v>13</v>
+      </c>
+      <c r="E26" s="82">
+        <v>2</v>
+      </c>
+      <c r="F26" s="82">
         <v>1</v>
       </c>
-      <c r="G26" s="89">
-        <v>2</v>
-      </c>
-      <c r="H26" s="92" t="s">
+      <c r="G26" s="82">
+        <v>0</v>
+      </c>
+      <c r="H26" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="I26" s="94" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="77">
-        <v>12</v>
-      </c>
-      <c r="E27" s="77">
-        <v>3</v>
-      </c>
-      <c r="F27" s="77">
-        <v>1</v>
-      </c>
-      <c r="G27" s="77">
-        <v>0</v>
-      </c>
-      <c r="H27" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" s="94" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="82">
-        <v>13</v>
-      </c>
-      <c r="E28" s="82">
-        <v>2</v>
-      </c>
-      <c r="F28" s="82">
-        <v>1</v>
-      </c>
-      <c r="G28" s="82">
-        <v>0</v>
-      </c>
-      <c r="H28" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="I28" s="72" t="s">
+      <c r="I26" s="72" t="s">
         <v>220</v>
       </c>
     </row>
+    <row r="34" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="177" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="178" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="179" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+  <mergeCells count="14">
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3244,7 +3209,7 @@
   </sheetPr>
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
@@ -3730,14 +3695,14 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="152" t="s">
+      <c r="M14" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
       <c r="Q14" s="27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>75</v>
@@ -3777,12 +3742,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="152" t="s">
+      <c r="M15" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -4025,14 +3990,14 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="115" t="s">
-        <v>292</v>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="113" t="s">
+        <v>285</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>63</v>
@@ -4072,12 +4037,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="155"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4090,7 +4055,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="2:18" s="103" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:18" s="101" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="50" t="s">
         <v>122</v>
@@ -4114,54 +4079,54 @@
     </row>
     <row r="27" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="C27" s="115">
+        <v>277</v>
+      </c>
+      <c r="C27" s="113">
         <v>0</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27" s="113">
         <v>1</v>
       </c>
-      <c r="E27" s="115">
+      <c r="E27" s="113">
         <v>2</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="113">
         <v>3</v>
       </c>
-      <c r="G27" s="115">
+      <c r="G27" s="113">
         <v>4</v>
       </c>
-      <c r="H27" s="115">
+      <c r="H27" s="113">
         <v>5</v>
       </c>
-      <c r="I27" s="115">
+      <c r="I27" s="113">
         <v>6</v>
       </c>
-      <c r="J27" s="115">
+      <c r="J27" s="113">
         <v>7</v>
       </c>
-      <c r="K27" s="115">
+      <c r="K27" s="113">
         <v>8</v>
       </c>
-      <c r="L27" s="115">
+      <c r="L27" s="113">
         <v>9</v>
       </c>
-      <c r="M27" s="115">
+      <c r="M27" s="113">
         <v>10</v>
       </c>
-      <c r="N27" s="115">
+      <c r="N27" s="113">
         <v>11</v>
       </c>
-      <c r="O27" s="115">
+      <c r="O27" s="113">
         <v>12</v>
       </c>
-      <c r="P27" s="115">
+      <c r="P27" s="113">
         <v>13</v>
       </c>
-      <c r="Q27" s="115">
+      <c r="Q27" s="113">
         <v>14</v>
       </c>
-      <c r="R27" s="115">
+      <c r="R27" s="113">
         <v>15</v>
       </c>
     </row>
@@ -4169,49 +4134,49 @@
       <c r="C28" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="113" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F28" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="115" t="s">
+      <c r="G28" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="115" t="s">
+      <c r="H28" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="I28" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="115" t="s">
+      <c r="J28" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="115" t="s">
+      <c r="K28" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="115" t="s">
+      <c r="L28" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="115" t="s">
+      <c r="M28" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="115" t="s">
+      <c r="N28" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="115" t="s">
+      <c r="O28" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="115" t="s">
+      <c r="P28" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="115" t="s">
+      <c r="Q28" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R28" s="115" t="s">
+      <c r="R28" s="113" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4219,154 +4184,154 @@
       <c r="B29" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115" t="s">
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="115" t="s">
+      <c r="I29" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="115" t="s">
-        <v>283</v>
-      </c>
-      <c r="K29" s="115" t="s">
+      <c r="J29" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="115" t="s">
+      <c r="L29" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="115" t="s">
+      <c r="M29" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="115" t="s">
+      <c r="N29" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="115" t="s">
+      <c r="O29" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="P29" s="115" t="s">
+      <c r="P29" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="Q29" s="115" t="s">
+      <c r="Q29" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="115" t="s">
+      <c r="R29" s="113" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
     </row>
     <row r="31" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="115">
+      <c r="C31" s="113">
         <v>16</v>
       </c>
-      <c r="D31" s="115">
+      <c r="D31" s="113">
         <v>17</v>
       </c>
-      <c r="E31" s="115">
+      <c r="E31" s="113">
         <v>18</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="113">
         <v>19</v>
       </c>
-      <c r="G31" s="115">
+      <c r="G31" s="113">
         <v>20</v>
       </c>
-      <c r="H31" s="115">
+      <c r="H31" s="113">
         <v>21</v>
       </c>
-      <c r="I31" s="115">
+      <c r="I31" s="113">
         <v>22</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="113">
         <v>23</v>
       </c>
-      <c r="K31" s="115">
+      <c r="K31" s="113">
         <v>24</v>
       </c>
-      <c r="L31" s="115">
+      <c r="L31" s="113">
         <v>25</v>
       </c>
-      <c r="M31" s="115">
+      <c r="M31" s="113">
         <v>26</v>
       </c>
-      <c r="N31" s="115">
+      <c r="N31" s="113">
         <v>27</v>
       </c>
-      <c r="O31" s="115">
+      <c r="O31" s="113">
         <v>28</v>
       </c>
-      <c r="P31" s="115">
+      <c r="P31" s="113">
         <v>29</v>
       </c>
-      <c r="Q31" s="115">
+      <c r="Q31" s="113">
         <v>30</v>
       </c>
-      <c r="R31" s="115">
+      <c r="R31" s="113">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:18" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="158" t="s">
+      <c r="D32" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="115" t="s">
-        <v>292</v>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="113" t="s">
+        <v>285</v>
       </c>
       <c r="I32" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="J32" s="115" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="115" t="s">
+      <c r="K32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="115" t="s">
+      <c r="L32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="115" t="s">
+      <c r="M32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="115" t="s">
+      <c r="N32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="115" t="s">
+      <c r="O32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="115" t="s">
+      <c r="P32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="115" t="s">
+      <c r="Q32" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="115" t="s">
+      <c r="R32" s="113" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4374,46 +4339,46 @@
       <c r="B33" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="159" t="s">
+      <c r="D33" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="161"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
-    </row>
-    <row r="34" spans="2:18" s="104" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
+        <v>281</v>
+      </c>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+    </row>
+    <row r="34" spans="2:18" s="102" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
     </row>
     <row r="35" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="50" t="s">
@@ -4678,12 +4643,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="153" t="s">
+      <c r="L41" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="154"/>
-      <c r="N41" s="154"/>
-      <c r="O41" s="155"/>
+      <c r="M41" s="160"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="161"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4725,12 +4690,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="153" t="s">
+      <c r="L42" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="154"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="155"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="161"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -5021,12 +4986,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="152" t="s">
+      <c r="M50" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="152"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="158"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5068,12 +5033,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="152" t="s">
+      <c r="M51" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="152"/>
-      <c r="O51" s="152"/>
-      <c r="P51" s="152"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="158"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5319,12 +5284,12 @@
       <c r="C59" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="152" t="s">
+      <c r="D59" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="152"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
       <c r="H59" s="32" t="s">
         <v>147</v>
       </c>
@@ -5366,12 +5331,12 @@
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="153" t="s">
+      <c r="D60" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="154"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="155"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="160"/>
+      <c r="G60" s="161"/>
       <c r="H60" s="32" t="s">
         <v>158</v>
       </c>
@@ -5628,12 +5593,12 @@
       <c r="C68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="158" t="s">
+      <c r="D68" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="158"/>
-      <c r="F68" s="158"/>
-      <c r="G68" s="158"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="154"/>
+      <c r="G68" s="154"/>
       <c r="H68" s="23" t="s">
         <v>196</v>
       </c>
@@ -5675,12 +5640,12 @@
       <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="159" t="s">
+      <c r="D69" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="160"/>
-      <c r="F69" s="160"/>
-      <c r="G69" s="161"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="157"/>
       <c r="H69" s="23" t="s">
         <v>88</v>
       </c>
@@ -5953,12 +5918,12 @@
       <c r="C78" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="158" t="s">
+      <c r="D78" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="158"/>
-      <c r="F78" s="158"/>
-      <c r="G78" s="158"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="154"/>
+      <c r="G78" s="154"/>
       <c r="H78" s="87" t="s">
         <v>196</v>
       </c>
@@ -6000,12 +5965,12 @@
       <c r="C79" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="159" t="s">
+      <c r="D79" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="160"/>
-      <c r="F79" s="160"/>
-      <c r="G79" s="161"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="157"/>
       <c r="H79" s="87" t="s">
         <v>88</v>
       </c>
@@ -6020,327 +5985,327 @@
       <c r="Q79" s="87"/>
       <c r="R79" s="87"/>
     </row>
-    <row r="80" spans="2:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="101"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="101"/>
-      <c r="K80" s="101"/>
-      <c r="L80" s="101"/>
-      <c r="M80" s="101"/>
-      <c r="N80" s="101"/>
-      <c r="O80" s="101"/>
-      <c r="P80" s="101"/>
-      <c r="Q80" s="101"/>
-      <c r="R80" s="101"/>
-    </row>
-    <row r="81" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="117" t="s">
+    <row r="80" spans="2:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="99"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="99"/>
+      <c r="K80" s="99"/>
+      <c r="L80" s="99"/>
+      <c r="M80" s="99"/>
+      <c r="N80" s="99"/>
+      <c r="O80" s="99"/>
+      <c r="P80" s="99"/>
+      <c r="Q80" s="99"/>
+      <c r="R80" s="99"/>
+    </row>
+    <row r="81" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="116"/>
+      <c r="H81" s="116"/>
+      <c r="I81" s="116"/>
+      <c r="J81" s="116"/>
+      <c r="K81" s="116"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="116"/>
+      <c r="N81" s="116"/>
+      <c r="O81" s="116"/>
+      <c r="P81" s="116"/>
+      <c r="Q81" s="116"/>
+      <c r="R81" s="116"/>
+    </row>
+    <row r="82" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="117">
+        <v>0</v>
+      </c>
+      <c r="D82" s="117">
+        <v>1</v>
+      </c>
+      <c r="E82" s="117">
+        <v>2</v>
+      </c>
+      <c r="F82" s="117">
+        <v>3</v>
+      </c>
+      <c r="G82" s="117">
+        <v>4</v>
+      </c>
+      <c r="H82" s="117">
+        <v>5</v>
+      </c>
+      <c r="I82" s="117">
+        <v>6</v>
+      </c>
+      <c r="J82" s="117">
+        <v>7</v>
+      </c>
+      <c r="K82" s="117">
+        <v>8</v>
+      </c>
+      <c r="L82" s="117">
+        <v>9</v>
+      </c>
+      <c r="M82" s="117">
+        <v>10</v>
+      </c>
+      <c r="N82" s="117">
+        <v>11</v>
+      </c>
+      <c r="O82" s="117">
+        <v>12</v>
+      </c>
+      <c r="P82" s="117">
+        <v>13</v>
+      </c>
+      <c r="Q82" s="117">
+        <v>14</v>
+      </c>
+      <c r="R82" s="117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" s="118" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="I83" s="117" t="s">
+        <v>284</v>
+      </c>
+      <c r="J83" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="118"/>
-      <c r="D81" s="118"/>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="118"/>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="118"/>
-    </row>
-    <row r="82" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="117" t="s">
+      <c r="K83" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="119">
-        <v>0</v>
-      </c>
-      <c r="D82" s="119">
-        <v>1</v>
-      </c>
-      <c r="E82" s="119">
-        <v>2</v>
-      </c>
-      <c r="F82" s="119">
-        <v>3</v>
-      </c>
-      <c r="G82" s="119">
-        <v>4</v>
-      </c>
-      <c r="H82" s="119">
-        <v>5</v>
-      </c>
-      <c r="I82" s="119">
-        <v>6</v>
-      </c>
-      <c r="J82" s="119">
-        <v>7</v>
-      </c>
-      <c r="K82" s="119">
-        <v>8</v>
-      </c>
-      <c r="L82" s="119">
-        <v>9</v>
-      </c>
-      <c r="M82" s="119">
-        <v>10</v>
-      </c>
-      <c r="N82" s="119">
-        <v>11</v>
-      </c>
-      <c r="O82" s="119">
-        <v>12</v>
-      </c>
-      <c r="P82" s="119">
-        <v>13</v>
-      </c>
-      <c r="Q82" s="119">
-        <v>14</v>
-      </c>
-      <c r="R82" s="119">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="120" t="s">
+      <c r="L83" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="119" t="s">
+      <c r="M83" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="E83" s="120" t="s">
+      <c r="N83" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="F83" s="120" t="s">
+      <c r="O83" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="G83" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="H83" s="119" t="s">
+      <c r="P83" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="I83" s="119" t="s">
-        <v>291</v>
-      </c>
-      <c r="J83" s="119" t="s">
+      <c r="Q83" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="K83" s="119" t="s">
+      <c r="R83" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="L83" s="119" t="s">
+    </row>
+    <row r="84" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="M83" s="119" t="s">
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="N83" s="119" t="s">
+      <c r="I84" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="O83" s="119" t="s">
+      <c r="J84" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="P83" s="119" t="s">
+      <c r="K84" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="Q83" s="119" t="s">
+      <c r="L84" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="M84" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="N84" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="O84" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="R83" s="119" t="s">
+      <c r="P84" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q84" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="R84" s="117" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="115" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="119"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="119"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
+      <c r="J85" s="119"/>
+      <c r="K85" s="119"/>
+      <c r="L85" s="119"/>
+      <c r="M85" s="119"/>
+      <c r="N85" s="119"/>
+      <c r="O85" s="119"/>
+      <c r="P85" s="119"/>
+      <c r="Q85" s="119"/>
+      <c r="R85" s="119"/>
+    </row>
+    <row r="86" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="117">
+        <v>16</v>
+      </c>
+      <c r="D86" s="117">
+        <v>17</v>
+      </c>
+      <c r="E86" s="117">
+        <v>18</v>
+      </c>
+      <c r="F86" s="117">
+        <v>19</v>
+      </c>
+      <c r="G86" s="117">
+        <v>20</v>
+      </c>
+      <c r="H86" s="117">
+        <v>21</v>
+      </c>
+      <c r="I86" s="117">
+        <v>22</v>
+      </c>
+      <c r="J86" s="117">
+        <v>23</v>
+      </c>
+      <c r="K86" s="117">
+        <v>24</v>
+      </c>
+      <c r="L86" s="117">
+        <v>25</v>
+      </c>
+      <c r="M86" s="117">
+        <v>26</v>
+      </c>
+      <c r="N86" s="117">
+        <v>27</v>
+      </c>
+      <c r="O86" s="117">
+        <v>28</v>
+      </c>
+      <c r="P86" s="117">
+        <v>29</v>
+      </c>
+      <c r="Q86" s="117">
+        <v>30</v>
+      </c>
+      <c r="R86" s="117">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="117" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="117" t="s">
+      <c r="D87" s="147" t="s">
         <v>252</v>
       </c>
-      <c r="C84" s="119"/>
-      <c r="D84" s="119"/>
-      <c r="E84" s="119"/>
-      <c r="F84" s="119"/>
-      <c r="G84" s="119"/>
-      <c r="H84" s="119" t="s">
+      <c r="E87" s="147"/>
+      <c r="F87" s="147"/>
+      <c r="G87" s="147"/>
+      <c r="H87" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="I84" s="119" t="s">
+      <c r="I87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="J87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="K87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="L87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="M87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="N87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="O87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="P87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q87" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="R87" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="J84" s="119" t="s">
-        <v>255</v>
-      </c>
-      <c r="K84" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="L84" s="119" t="s">
+    </row>
+    <row r="88" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="N84" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="O84" s="119" t="s">
-        <v>257</v>
-      </c>
-      <c r="P84" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q84" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="R84" s="119" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="121"/>
-      <c r="D85" s="121"/>
-      <c r="E85" s="121"/>
-      <c r="F85" s="121"/>
-      <c r="G85" s="121"/>
-      <c r="H85" s="121"/>
-      <c r="I85" s="121"/>
-      <c r="J85" s="121"/>
-      <c r="K85" s="121"/>
-      <c r="L85" s="121"/>
-      <c r="M85" s="121"/>
-      <c r="N85" s="121"/>
-      <c r="O85" s="121"/>
-      <c r="P85" s="121"/>
-      <c r="Q85" s="121"/>
-      <c r="R85" s="121"/>
-    </row>
-    <row r="86" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="119">
-        <v>16</v>
-      </c>
-      <c r="D86" s="119">
-        <v>17</v>
-      </c>
-      <c r="E86" s="119">
-        <v>18</v>
-      </c>
-      <c r="F86" s="119">
-        <v>19</v>
-      </c>
-      <c r="G86" s="119">
-        <v>20</v>
-      </c>
-      <c r="H86" s="119">
-        <v>21</v>
-      </c>
-      <c r="I86" s="119">
-        <v>22</v>
-      </c>
-      <c r="J86" s="119">
-        <v>23</v>
-      </c>
-      <c r="K86" s="119">
-        <v>24</v>
-      </c>
-      <c r="L86" s="119">
-        <v>25</v>
-      </c>
-      <c r="M86" s="119">
-        <v>26</v>
-      </c>
-      <c r="N86" s="119">
-        <v>27</v>
-      </c>
-      <c r="O86" s="119">
-        <v>28</v>
-      </c>
-      <c r="P86" s="119">
-        <v>29</v>
-      </c>
-      <c r="Q86" s="119">
-        <v>30</v>
-      </c>
-      <c r="R86" s="119">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="D87" s="162" t="s">
-        <v>259</v>
-      </c>
-      <c r="E87" s="162"/>
-      <c r="F87" s="162"/>
-      <c r="G87" s="162"/>
-      <c r="H87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="I87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="J87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="K87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="L87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="M87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="N87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="O87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="P87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q87" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="R87" s="119" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="122" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="163" t="s">
-        <v>257</v>
-      </c>
-      <c r="E88" s="164"/>
-      <c r="F88" s="164"/>
-      <c r="G88" s="165"/>
-      <c r="H88" s="119"/>
-      <c r="I88" s="119"/>
-      <c r="J88" s="119"/>
-      <c r="K88" s="119"/>
-      <c r="L88" s="119"/>
-      <c r="M88" s="119"/>
-      <c r="N88" s="119"/>
-      <c r="O88" s="119"/>
-      <c r="P88" s="119"/>
-      <c r="Q88" s="119"/>
-      <c r="R88" s="119"/>
+      <c r="D88" s="148" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" s="149"/>
+      <c r="F88" s="149"/>
+      <c r="G88" s="150"/>
+      <c r="H88" s="117"/>
+      <c r="I88" s="117"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="117"/>
+      <c r="L88" s="117"/>
+      <c r="M88" s="117"/>
+      <c r="N88" s="117"/>
+      <c r="O88" s="117"/>
+      <c r="P88" s="117"/>
+      <c r="Q88" s="117"/>
+      <c r="R88" s="117"/>
     </row>
     <row r="89" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C89" s="29"/>
@@ -7015,23 +6980,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="156" t="s">
+      <c r="H111" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="156"/>
-      <c r="J111" s="156"/>
-      <c r="K111" s="156"/>
-      <c r="L111" s="156" t="s">
+      <c r="I111" s="165"/>
+      <c r="J111" s="165"/>
+      <c r="K111" s="165"/>
+      <c r="L111" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="156"/>
-      <c r="N111" s="156"/>
-      <c r="O111" s="156"/>
-      <c r="P111" s="156" t="s">
+      <c r="M111" s="165"/>
+      <c r="N111" s="165"/>
+      <c r="O111" s="165"/>
+      <c r="P111" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="156"/>
-      <c r="R111" s="156"/>
+      <c r="Q111" s="165"/>
+      <c r="R111" s="165"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7094,12 +7059,12 @@
       <c r="C114" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="157" t="s">
+      <c r="D114" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="157"/>
-      <c r="F114" s="157"/>
-      <c r="G114" s="157"/>
+      <c r="E114" s="166"/>
+      <c r="F114" s="166"/>
+      <c r="G114" s="166"/>
       <c r="H114" s="39" t="s">
         <v>70</v>
       </c>
@@ -7112,10 +7077,10 @@
       <c r="K114" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L114" s="102" t="s">
+      <c r="L114" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="M114" s="102" t="s">
+      <c r="M114" s="100" t="s">
         <v>196</v>
       </c>
       <c r="N114" s="39" t="s">
@@ -7252,23 +7217,23 @@
       <c r="G120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="156" t="s">
+      <c r="H120" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="156"/>
-      <c r="J120" s="156"/>
-      <c r="K120" s="156"/>
-      <c r="L120" s="156" t="s">
+      <c r="I120" s="165"/>
+      <c r="J120" s="165"/>
+      <c r="K120" s="165"/>
+      <c r="L120" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="156"/>
-      <c r="N120" s="156"/>
-      <c r="O120" s="156"/>
-      <c r="P120" s="156" t="s">
+      <c r="M120" s="165"/>
+      <c r="N120" s="165"/>
+      <c r="O120" s="165"/>
+      <c r="P120" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="156"/>
-      <c r="R120" s="156"/>
+      <c r="Q120" s="165"/>
+      <c r="R120" s="165"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7330,12 +7295,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="157" t="s">
+      <c r="D123" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="157"/>
-      <c r="F123" s="157"/>
-      <c r="G123" s="157"/>
+      <c r="E123" s="166"/>
+      <c r="F123" s="166"/>
+      <c r="G123" s="166"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7418,237 +7383,237 @@
         <v>5</v>
       </c>
       <c r="B128" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="C128" s="106">
+        <v>278</v>
+      </c>
+      <c r="C128" s="104">
         <v>0</v>
       </c>
-      <c r="D128" s="106">
+      <c r="D128" s="104">
         <v>1</v>
       </c>
-      <c r="E128" s="106">
+      <c r="E128" s="104">
         <v>2</v>
       </c>
-      <c r="F128" s="106">
+      <c r="F128" s="104">
         <v>3</v>
       </c>
-      <c r="G128" s="106">
+      <c r="G128" s="104">
         <v>4</v>
       </c>
-      <c r="H128" s="106">
+      <c r="H128" s="104">
         <v>5</v>
       </c>
-      <c r="I128" s="106">
+      <c r="I128" s="104">
         <v>6</v>
       </c>
-      <c r="J128" s="106">
+      <c r="J128" s="104">
         <v>7</v>
       </c>
-      <c r="K128" s="106">
+      <c r="K128" s="104">
         <v>8</v>
       </c>
-      <c r="L128" s="106">
+      <c r="L128" s="104">
         <v>9</v>
       </c>
-      <c r="M128" s="106">
+      <c r="M128" s="104">
         <v>10</v>
       </c>
-      <c r="N128" s="106">
+      <c r="N128" s="104">
         <v>11</v>
       </c>
-      <c r="O128" s="106">
+      <c r="O128" s="104">
         <v>12</v>
       </c>
-      <c r="P128" s="106">
+      <c r="P128" s="104">
         <v>13</v>
       </c>
-      <c r="Q128" s="106">
+      <c r="Q128" s="104">
         <v>14</v>
       </c>
-      <c r="R128" s="106">
+      <c r="R128" s="104">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="106" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" s="106" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" s="106" t="s">
+        <v>258</v>
+      </c>
+      <c r="F129" s="106" t="s">
+        <v>259</v>
+      </c>
+      <c r="G129" s="106" t="s">
+        <v>260</v>
+      </c>
+      <c r="H129" s="151" t="s">
+        <v>261</v>
+      </c>
+      <c r="I129" s="151"/>
+      <c r="J129" s="151"/>
+      <c r="K129" s="151"/>
+      <c r="L129" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="C129" s="108" t="s">
+      <c r="M129" s="151"/>
+      <c r="N129" s="151"/>
+      <c r="O129" s="151"/>
+      <c r="P129" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="D129" s="108" t="s">
+      <c r="Q129" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="E129" s="108" t="s">
+      <c r="R129" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="F129" s="108" t="s">
+    </row>
+    <row r="130" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="107"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="107"/>
+      <c r="F130" s="107"/>
+      <c r="G130" s="107"/>
+      <c r="H130" s="107"/>
+      <c r="I130" s="107"/>
+      <c r="J130" s="107"/>
+      <c r="K130" s="107"/>
+      <c r="L130" s="107"/>
+      <c r="M130" s="107"/>
+      <c r="N130" s="107"/>
+      <c r="O130" s="107"/>
+      <c r="P130" s="107"/>
+      <c r="Q130" s="107"/>
+      <c r="R130" s="107"/>
+    </row>
+    <row r="131" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="104">
+        <v>16</v>
+      </c>
+      <c r="D131" s="104">
+        <v>17</v>
+      </c>
+      <c r="E131" s="104">
+        <v>18</v>
+      </c>
+      <c r="F131" s="104">
+        <v>19</v>
+      </c>
+      <c r="G131" s="104">
+        <v>20</v>
+      </c>
+      <c r="H131" s="104">
+        <v>21</v>
+      </c>
+      <c r="I131" s="104">
+        <v>22</v>
+      </c>
+      <c r="J131" s="104">
+        <v>23</v>
+      </c>
+      <c r="K131" s="104">
+        <v>24</v>
+      </c>
+      <c r="L131" s="104">
+        <v>25</v>
+      </c>
+      <c r="M131" s="104">
+        <v>26</v>
+      </c>
+      <c r="N131" s="104">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="108"/>
+      <c r="C132" s="152" t="s">
         <v>266</v>
       </c>
-      <c r="G129" s="108" t="s">
+      <c r="D132" s="153"/>
+      <c r="E132" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="H129" s="166" t="s">
+      <c r="F132" s="104">
+        <v>0</v>
+      </c>
+      <c r="G132" s="104">
+        <v>0</v>
+      </c>
+      <c r="H132" s="104" t="s">
         <v>268</v>
       </c>
-      <c r="I129" s="166"/>
-      <c r="J129" s="166"/>
-      <c r="K129" s="166"/>
-      <c r="L129" s="166" t="s">
+      <c r="I132" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="M129" s="166"/>
-      <c r="N129" s="166"/>
-      <c r="O129" s="166"/>
-      <c r="P129" s="106" t="s">
+      <c r="J132" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="Q129" s="106" t="s">
+      <c r="K132" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="R129" s="106" t="s">
+      <c r="L132" s="100" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="109"/>
-      <c r="D130" s="109"/>
-      <c r="E130" s="109"/>
-      <c r="F130" s="109"/>
-      <c r="G130" s="109"/>
-      <c r="H130" s="109"/>
-      <c r="I130" s="109"/>
-      <c r="J130" s="109"/>
-      <c r="K130" s="109"/>
-      <c r="L130" s="109"/>
-      <c r="M130" s="109"/>
-      <c r="N130" s="109"/>
-      <c r="O130" s="109"/>
-      <c r="P130" s="109"/>
-      <c r="Q130" s="109"/>
-      <c r="R130" s="109"/>
-    </row>
-    <row r="131" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="106">
-        <v>16</v>
-      </c>
-      <c r="D131" s="106">
-        <v>17</v>
-      </c>
-      <c r="E131" s="106">
-        <v>18</v>
-      </c>
-      <c r="F131" s="106">
-        <v>19</v>
-      </c>
-      <c r="G131" s="106">
-        <v>20</v>
-      </c>
-      <c r="H131" s="106">
-        <v>21</v>
-      </c>
-      <c r="I131" s="106">
-        <v>22</v>
-      </c>
-      <c r="J131" s="106">
-        <v>23</v>
-      </c>
-      <c r="K131" s="106">
-        <v>24</v>
-      </c>
-      <c r="L131" s="106">
-        <v>25</v>
-      </c>
-      <c r="M131" s="106">
-        <v>26</v>
-      </c>
-      <c r="N131" s="106">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="110"/>
-      <c r="C132" s="167" t="s">
+      <c r="M132" s="100" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="168"/>
-      <c r="E132" s="106" t="s">
+      <c r="N132" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="F132" s="106">
+    </row>
+    <row r="133" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="99"/>
+      <c r="D133" s="99"/>
+      <c r="E133" s="99"/>
+      <c r="F133" s="99"/>
+      <c r="G133" s="99"/>
+      <c r="H133" s="99"/>
+      <c r="I133" s="99"/>
+      <c r="J133" s="99"/>
+      <c r="K133" s="99"/>
+      <c r="L133" s="99"/>
+      <c r="M133" s="99"/>
+      <c r="N133" s="99"/>
+    </row>
+    <row r="134" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="104">
         <v>0</v>
       </c>
-      <c r="G132" s="106">
-        <v>0</v>
-      </c>
-      <c r="H132" s="106" t="s">
-        <v>275</v>
-      </c>
-      <c r="I132" s="106" t="s">
-        <v>276</v>
-      </c>
-      <c r="J132" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="K132" s="106" t="s">
-        <v>278</v>
-      </c>
-      <c r="L132" s="102" t="s">
-        <v>279</v>
-      </c>
-      <c r="M132" s="102" t="s">
-        <v>280</v>
-      </c>
-      <c r="N132" s="106" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="101"/>
-      <c r="D133" s="101"/>
-      <c r="E133" s="101"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="101"/>
-      <c r="H133" s="101"/>
-      <c r="I133" s="101"/>
-      <c r="J133" s="101"/>
-      <c r="K133" s="101"/>
-      <c r="L133" s="101"/>
-      <c r="M133" s="101"/>
-      <c r="N133" s="101"/>
-    </row>
-    <row r="134" spans="1:18" s="110" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="110" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="106">
-        <v>0</v>
-      </c>
-      <c r="D134" s="106">
+      <c r="D134" s="104">
         <v>1</v>
       </c>
-      <c r="E134" s="106">
+      <c r="E134" s="104">
         <v>2</v>
       </c>
-      <c r="F134" s="106">
+      <c r="F134" s="104">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="107" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="107" t="s">
+    <row r="135" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="C135" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="D135" s="108" t="s">
-        <v>264</v>
-      </c>
-      <c r="E135" s="108">
+      <c r="C135" s="106" t="s">
+        <v>256</v>
+      </c>
+      <c r="D135" s="106" t="s">
+        <v>257</v>
+      </c>
+      <c r="E135" s="106">
         <v>11</v>
       </c>
-      <c r="F135" s="108" t="s">
-        <v>281</v>
+      <c r="F135" s="106" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:18" s="59" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7914,18 +7879,18 @@
       <c r="F144" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="149" t="s">
+      <c r="G144" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="150"/>
-      <c r="I144" s="150"/>
-      <c r="J144" s="151"/>
-      <c r="K144" s="149" t="s">
+      <c r="H144" s="163"/>
+      <c r="I144" s="163"/>
+      <c r="J144" s="164"/>
+      <c r="K144" s="162" t="s">
         <v>204</v>
       </c>
-      <c r="L144" s="150"/>
-      <c r="M144" s="150"/>
-      <c r="N144" s="151"/>
+      <c r="L144" s="163"/>
+      <c r="M144" s="163"/>
+      <c r="N144" s="164"/>
       <c r="O144" s="62" t="s">
         <v>199</v>
       </c>
@@ -7947,21 +7912,6 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7978,6 +7928,21 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7995,532 +7960,532 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.5" style="126" customWidth="1"/>
-    <col min="3" max="7" width="9" style="125"/>
+    <col min="2" max="2" width="21.5" style="124" customWidth="1"/>
+    <col min="3" max="7" width="9" style="123"/>
     <col min="8" max="8" width="15.875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="130" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="170" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="131" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="167" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="169"/>
+    </row>
+    <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="125" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="126" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="G4" s="126" t="s">
         <v>294</v>
-      </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="133" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="169" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
-    </row>
-    <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="127" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="128" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="128" t="s">
-        <v>301</v>
       </c>
       <c r="H4" s="73">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="129" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="128" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="128" t="s">
-        <v>328</v>
+      <c r="B5" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="126" t="s">
+        <v>321</v>
       </c>
       <c r="H5" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="128" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="128" t="s">
-        <v>329</v>
+      <c r="B6" s="127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="126" t="s">
+        <v>322</v>
       </c>
       <c r="H6" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="129" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="128" t="s">
+      <c r="B7" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="G7" s="128" t="s">
-        <v>330</v>
+      <c r="C7" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="126" t="s">
+        <v>323</v>
       </c>
       <c r="H7" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="129" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="128" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="G8" s="128" t="s">
-        <v>331</v>
+      <c r="B8" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="126" t="s">
+        <v>324</v>
       </c>
       <c r="H8" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="129" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" s="128" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="128" t="s">
-        <v>327</v>
-      </c>
-      <c r="G9" s="128" t="s">
-        <v>331</v>
+      <c r="B9" s="127" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="126" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="126" t="s">
+        <v>324</v>
       </c>
       <c r="H9" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="129" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="128" t="s">
+      <c r="B10" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="126" t="s">
         <v>325</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="128" t="s">
-        <v>332</v>
       </c>
       <c r="H10" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="129" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="128" t="s">
+      <c r="B11" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="F11" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="G11" s="128" t="s">
-        <v>334</v>
+      <c r="G11" s="126" t="s">
+        <v>327</v>
       </c>
       <c r="H11" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="129" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="128" t="s">
+      <c r="B12" s="127" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="126" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="128" t="s">
+      <c r="G12" s="126" t="s">
         <v>326</v>
-      </c>
-      <c r="F12" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="G12" s="128" t="s">
-        <v>333</v>
       </c>
       <c r="H12" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="129" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>326</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="G13" s="128" t="s">
-        <v>335</v>
+      <c r="B13" s="127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="126" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="126" t="s">
+        <v>328</v>
       </c>
       <c r="H13" s="73">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="173" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="175"/>
+      <c r="B14" s="171" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="173"/>
     </row>
     <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="127" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="F15" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>301</v>
+      <c r="B15" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" s="126" t="s">
+        <v>294</v>
       </c>
       <c r="H15" s="73">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="G16" s="134"/>
+      <c r="B16" s="127" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="132"/>
       <c r="H16" s="73">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="129" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="G17" s="134"/>
+      <c r="B17" s="127" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="132"/>
       <c r="H17" s="73">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="173" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="175"/>
+      <c r="B18" s="171" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="173"/>
     </row>
     <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="129" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="E19" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="128" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="128" t="s">
-        <v>301</v>
+      <c r="B19" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="126" t="s">
+        <v>294</v>
       </c>
       <c r="H19" s="73">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="129" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="E20" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
+      <c r="B20" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
       <c r="H20" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="129" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F21" s="128" t="s">
-        <v>300</v>
-      </c>
-      <c r="G21" s="128" t="s">
-        <v>301</v>
+      <c r="B21" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" s="126" t="s">
+        <v>294</v>
       </c>
       <c r="H21" s="73">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="C22" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="D22" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="E22" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
+      <c r="B22" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
       <c r="H22" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="129" t="s">
-        <v>321</v>
-      </c>
-      <c r="C23" s="128" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="E23" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" s="128" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" s="128" t="s">
-        <v>301</v>
+      <c r="B23" s="127" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="126" t="s">
+        <v>294</v>
       </c>
       <c r="H23" s="73">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="129" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="128" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="E24" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
+      <c r="B24" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
       <c r="H24" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="169" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171"/>
+      <c r="B25" s="167" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="125" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" s="128" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="G26" s="128" t="s">
-        <v>301</v>
+      <c r="C26" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="126" t="s">
+        <v>294</v>
       </c>
       <c r="H26" s="73">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="130" t="s">
-        <v>324</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="131" t="s">
-        <v>298</v>
-      </c>
-      <c r="E27" s="131" t="s">
-        <v>336</v>
-      </c>
-      <c r="F27" s="131" t="s">
-        <v>341</v>
-      </c>
-      <c r="G27" s="134"/>
+      <c r="B27" s="128" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="129" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27" s="129" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="132"/>
       <c r="H27" s="72">
         <v>16</v>
       </c>

--- a/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
+++ b/01 通讯协议/航安LED灯具通讯协议-20180408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="347">
   <si>
     <t>RMS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1410,6 +1410,18 @@
   </si>
   <si>
     <t xml:space="preserve">                      当计算电流=0.4，真实电流=0.45</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算电流/1.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1538,7 +1550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1867,13 +1879,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2282,17 +2316,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2300,6 +2340,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2315,6 +2367,45 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,45 +2425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2396,23 +2448,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2715,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K45"/>
+  <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2760,26 +2800,26 @@
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="148" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="142"/>
-      <c r="H7" s="143" t="s">
+      <c r="G7" s="148"/>
+      <c r="H7" s="149" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="140" t="s">
+      <c r="I7" s="142" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="146"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="75" t="s">
         <v>111</v>
       </c>
@@ -2792,8 +2832,8 @@
       <c r="G8" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="141"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="143"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74" t="s">
@@ -2857,184 +2897,188 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="136" t="s">
+    <row r="13" spans="1:11" s="141" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="146">
         <v>5</v>
       </c>
-      <c r="E13" s="138">
+      <c r="E13" s="146">
         <v>6</v>
       </c>
       <c r="F13" s="90">
         <v>1</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="96" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="138" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="180"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="90">
+        <v>1</v>
+      </c>
+      <c r="G14" s="90">
         <v>3</v>
       </c>
-      <c r="H13" s="175" t="s">
+      <c r="H14" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="176" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="137"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="86">
+      <c r="I14" s="138" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="145"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="86">
         <v>1</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G15" s="86">
         <v>0</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H15" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="I14" s="97" t="s">
+      <c r="I15" s="97" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="77">
-        <v>6</v>
-      </c>
-      <c r="E15" s="77">
-        <v>7</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="79"/>
-      <c r="K15" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="77">
+        <v>6</v>
+      </c>
+      <c r="E16" s="77">
         <v>7</v>
-      </c>
-      <c r="E16" s="77">
-        <v>8</v>
       </c>
       <c r="F16" s="80"/>
       <c r="G16" s="80"/>
       <c r="H16" s="91"/>
       <c r="I16" s="79"/>
+      <c r="K16" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="77">
+        <v>7</v>
+      </c>
+      <c r="E17" s="77">
+        <v>8</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="79"/>
+    </row>
+    <row r="18" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D18" s="146">
         <v>8</v>
       </c>
-      <c r="E17" s="138">
+      <c r="E18" s="146">
         <v>0</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F18" s="77">
         <v>1</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G18" s="77">
         <v>3</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H18" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I18" s="73" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="3:9" s="112" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="137"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="121">
-        <v>3</v>
-      </c>
-      <c r="G18" s="121">
+    <row r="19" spans="3:9" s="112" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="145"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="121">
         <v>1</v>
       </c>
-      <c r="H18" s="122" t="s">
+      <c r="G19" s="121">
+        <v>4</v>
+      </c>
+      <c r="H19" s="122" t="s">
         <v>282</v>
       </c>
-      <c r="I18" s="111" t="s">
+      <c r="I19" s="111" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="74" t="s">
+    <row r="20" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D20" s="77">
         <v>8</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E20" s="77">
         <v>4</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F20" s="77">
         <v>1</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G20" s="77">
         <v>1</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H20" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I20" s="73" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="3:9" s="112" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="109" t="s">
+    <row r="21" spans="3:9" s="112" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="110">
+      <c r="D21" s="110">
         <v>9</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E21" s="110">
         <v>9</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F21" s="110">
         <v>2</v>
       </c>
-      <c r="G20" s="110">
+      <c r="G21" s="110">
         <v>0</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H21" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="I20" s="133" t="s">
+      <c r="I21" s="133" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="77">
-        <v>10</v>
-      </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
@@ -3043,158 +3087,171 @@
       <c r="I22" s="79"/>
     </row>
     <row r="23" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="77">
+        <v>11</v>
+      </c>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="79"/>
+    </row>
+    <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="138">
+      <c r="D24" s="146">
         <v>12</v>
       </c>
-      <c r="E23" s="138">
+      <c r="E24" s="146">
         <v>0</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F24" s="77">
         <v>1</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G24" s="77">
         <v>3</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H24" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I24" s="94" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="137"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="89">
+    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="145"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="89">
         <v>1</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G25" s="89">
         <v>2</v>
-      </c>
-      <c r="H24" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="94" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="77">
-        <v>12</v>
-      </c>
-      <c r="E25" s="77">
-        <v>3</v>
-      </c>
-      <c r="F25" s="77">
-        <v>1</v>
-      </c>
-      <c r="G25" s="77">
-        <v>0</v>
       </c>
       <c r="H25" s="92" t="s">
         <v>208</v>
       </c>
       <c r="I25" s="94" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="77">
+        <v>12</v>
+      </c>
+      <c r="E26" s="77">
+        <v>3</v>
+      </c>
+      <c r="F26" s="77">
+        <v>1</v>
+      </c>
+      <c r="G26" s="77">
+        <v>0</v>
+      </c>
+      <c r="H26" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="I26" s="94" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="81" t="s">
+    <row r="27" spans="3:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D27" s="82">
         <v>13</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E27" s="82">
         <v>2</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F27" s="82">
         <v>1</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G27" s="82">
         <v>0</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H27" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="I26" s="72" t="s">
+      <c r="I27" s="72" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="95" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="95" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="177" t="s">
+    <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="139" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="178" t="s">
+    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="140" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="179" t="s">
+    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="141" t="s">
         <v>343</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D43" s="40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3695,12 +3752,12 @@
       <c r="L14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="158" t="s">
+      <c r="M14" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="158"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
       <c r="Q14" s="27" t="s">
         <v>285</v>
       </c>
@@ -3742,12 +3799,12 @@
       <c r="L15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="158" t="s">
+      <c r="M15" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
@@ -3990,12 +4047,12 @@
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="113" t="s">
         <v>285</v>
       </c>
@@ -4037,12 +4094,12 @@
       <c r="C24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="161"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="159"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4295,12 +4352,12 @@
       <c r="C32" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="154" t="s">
+      <c r="D32" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
       <c r="H32" s="113" t="s">
         <v>285</v>
       </c>
@@ -4342,12 +4399,12 @@
       <c r="C33" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="155" t="s">
+      <c r="D33" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="157"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="165"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66" t="s">
         <v>281</v>
@@ -4643,12 +4700,12 @@
       <c r="K41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="159" t="s">
+      <c r="L41" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="160"/>
-      <c r="N41" s="160"/>
-      <c r="O41" s="161"/>
+      <c r="M41" s="158"/>
+      <c r="N41" s="158"/>
+      <c r="O41" s="159"/>
       <c r="P41" s="30" t="s">
         <v>141</v>
       </c>
@@ -4690,12 +4747,12 @@
       <c r="K42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="159" t="s">
+      <c r="L42" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="160"/>
-      <c r="N42" s="160"/>
-      <c r="O42" s="161"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="159"/>
       <c r="P42" s="30" t="s">
         <v>132</v>
       </c>
@@ -4986,12 +5043,12 @@
       <c r="L50" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="158" t="s">
+      <c r="M50" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="158"/>
-      <c r="O50" s="158"/>
-      <c r="P50" s="158"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
       <c r="Q50" s="32" t="s">
         <v>140</v>
       </c>
@@ -5033,12 +5090,12 @@
       <c r="L51" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M51" s="158" t="s">
+      <c r="M51" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="N51" s="158"/>
-      <c r="O51" s="158"/>
-      <c r="P51" s="158"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
       <c r="Q51" s="32" t="s">
         <v>90</v>
       </c>
@@ -5284,12 +5341,12 @@
       <c r="C59" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="158" t="s">
+      <c r="D59" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="158"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
       <c r="H59" s="32" t="s">
         <v>147</v>
       </c>
@@ -5331,12 +5388,12 @@
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="159" t="s">
+      <c r="D60" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="160"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="161"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="159"/>
       <c r="H60" s="32" t="s">
         <v>158</v>
       </c>
@@ -5593,12 +5650,12 @@
       <c r="C68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="154" t="s">
+      <c r="D68" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="162"/>
+      <c r="G68" s="162"/>
       <c r="H68" s="23" t="s">
         <v>196</v>
       </c>
@@ -5640,12 +5697,12 @@
       <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="155" t="s">
+      <c r="D69" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="157"/>
+      <c r="E69" s="164"/>
+      <c r="F69" s="164"/>
+      <c r="G69" s="165"/>
       <c r="H69" s="23" t="s">
         <v>88</v>
       </c>
@@ -5918,12 +5975,12 @@
       <c r="C78" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="154" t="s">
+      <c r="D78" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="154"/>
-      <c r="F78" s="154"/>
-      <c r="G78" s="154"/>
+      <c r="E78" s="162"/>
+      <c r="F78" s="162"/>
+      <c r="G78" s="162"/>
       <c r="H78" s="87" t="s">
         <v>196</v>
       </c>
@@ -5965,12 +6022,12 @@
       <c r="C79" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="155" t="s">
+      <c r="D79" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="157"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="164"/>
+      <c r="G79" s="165"/>
       <c r="H79" s="87" t="s">
         <v>88</v>
       </c>
@@ -6242,12 +6299,12 @@
       <c r="C87" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="147" t="s">
+      <c r="D87" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="E87" s="147"/>
-      <c r="F87" s="147"/>
-      <c r="G87" s="147"/>
+      <c r="E87" s="166"/>
+      <c r="F87" s="166"/>
+      <c r="G87" s="166"/>
       <c r="H87" s="117" t="s">
         <v>253</v>
       </c>
@@ -6289,12 +6346,12 @@
       <c r="C88" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="148" t="s">
+      <c r="D88" s="167" t="s">
         <v>250</v>
       </c>
-      <c r="E88" s="149"/>
-      <c r="F88" s="149"/>
-      <c r="G88" s="150"/>
+      <c r="E88" s="168"/>
+      <c r="F88" s="168"/>
+      <c r="G88" s="169"/>
       <c r="H88" s="117"/>
       <c r="I88" s="117"/>
       <c r="J88" s="117"/>
@@ -6980,23 +7037,23 @@
       <c r="G111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="165" t="s">
+      <c r="H111" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="165"/>
-      <c r="J111" s="165"/>
-      <c r="K111" s="165"/>
-      <c r="L111" s="165" t="s">
+      <c r="I111" s="160"/>
+      <c r="J111" s="160"/>
+      <c r="K111" s="160"/>
+      <c r="L111" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="M111" s="165"/>
-      <c r="N111" s="165"/>
-      <c r="O111" s="165"/>
-      <c r="P111" s="165" t="s">
+      <c r="M111" s="160"/>
+      <c r="N111" s="160"/>
+      <c r="O111" s="160"/>
+      <c r="P111" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="Q111" s="165"/>
-      <c r="R111" s="165"/>
+      <c r="Q111" s="160"/>
+      <c r="R111" s="160"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C112" s="15"/>
@@ -7059,12 +7116,12 @@
       <c r="C114" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="166" t="s">
+      <c r="D114" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="166"/>
-      <c r="F114" s="166"/>
-      <c r="G114" s="166"/>
+      <c r="E114" s="161"/>
+      <c r="F114" s="161"/>
+      <c r="G114" s="161"/>
       <c r="H114" s="39" t="s">
         <v>70</v>
       </c>
@@ -7217,23 +7274,23 @@
       <c r="G120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H120" s="165" t="s">
+      <c r="H120" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="I120" s="165"/>
-      <c r="J120" s="165"/>
-      <c r="K120" s="165"/>
-      <c r="L120" s="165" t="s">
+      <c r="I120" s="160"/>
+      <c r="J120" s="160"/>
+      <c r="K120" s="160"/>
+      <c r="L120" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="M120" s="165"/>
-      <c r="N120" s="165"/>
-      <c r="O120" s="165"/>
-      <c r="P120" s="165" t="s">
+      <c r="M120" s="160"/>
+      <c r="N120" s="160"/>
+      <c r="O120" s="160"/>
+      <c r="P120" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="Q120" s="165"/>
-      <c r="R120" s="165"/>
+      <c r="Q120" s="160"/>
+      <c r="R120" s="160"/>
     </row>
     <row r="121" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C121" s="15"/>
@@ -7295,12 +7352,12 @@
       <c r="C123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="166" t="s">
+      <c r="D123" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="166"/>
-      <c r="F123" s="166"/>
-      <c r="G123" s="166"/>
+      <c r="E123" s="161"/>
+      <c r="F123" s="161"/>
+      <c r="G123" s="161"/>
       <c r="H123" s="36" t="s">
         <v>70</v>
       </c>
@@ -7453,18 +7510,18 @@
       <c r="G129" s="106" t="s">
         <v>260</v>
       </c>
-      <c r="H129" s="151" t="s">
+      <c r="H129" s="170" t="s">
         <v>261</v>
       </c>
-      <c r="I129" s="151"/>
-      <c r="J129" s="151"/>
-      <c r="K129" s="151"/>
-      <c r="L129" s="151" t="s">
+      <c r="I129" s="170"/>
+      <c r="J129" s="170"/>
+      <c r="K129" s="170"/>
+      <c r="L129" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="M129" s="151"/>
-      <c r="N129" s="151"/>
-      <c r="O129" s="151"/>
+      <c r="M129" s="170"/>
+      <c r="N129" s="170"/>
+      <c r="O129" s="170"/>
       <c r="P129" s="104" t="s">
         <v>263</v>
       </c>
@@ -7533,10 +7590,10 @@
     </row>
     <row r="132" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="108"/>
-      <c r="C132" s="152" t="s">
+      <c r="C132" s="171" t="s">
         <v>266</v>
       </c>
-      <c r="D132" s="153"/>
+      <c r="D132" s="172"/>
       <c r="E132" s="104" t="s">
         <v>267</v>
       </c>
@@ -7879,18 +7936,18 @@
       <c r="F144" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="162" t="s">
+      <c r="G144" s="153" t="s">
         <v>198</v>
       </c>
-      <c r="H144" s="163"/>
-      <c r="I144" s="163"/>
-      <c r="J144" s="164"/>
-      <c r="K144" s="162" t="s">
+      <c r="H144" s="154"/>
+      <c r="I144" s="154"/>
+      <c r="J144" s="155"/>
+      <c r="K144" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="L144" s="163"/>
-      <c r="M144" s="163"/>
-      <c r="N144" s="164"/>
+      <c r="L144" s="154"/>
+      <c r="M144" s="154"/>
+      <c r="N144" s="155"/>
       <c r="O144" s="62" t="s">
         <v>199</v>
       </c>
@@ -7912,6 +7969,21 @@
     <row r="150" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="G144:J144"/>
     <mergeCell ref="K144:N144"/>
     <mergeCell ref="D23:G23"/>
@@ -7928,21 +8000,6 @@
     <mergeCell ref="L111:O111"/>
     <mergeCell ref="P111:R111"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="C132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7970,27 +8027,27 @@
       <c r="B2" s="130" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
       <c r="H2" s="131" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="169"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="175"/>
     </row>
     <row r="4" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="125" t="s">
@@ -8223,15 +8280,15 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="177" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="173"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="179"/>
     </row>
     <row r="15" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="125" t="s">
@@ -8299,15 +8356,15 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="177" t="s">
         <v>310</v>
       </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="173"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="179"/>
     </row>
     <row r="19" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="127" t="s">
@@ -8436,15 +8493,15 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="173" t="s">
         <v>316</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="175"/>
     </row>
     <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="125" t="s">
